--- a/outputs/sample_data.xlsx
+++ b/outputs/sample_data.xlsx
@@ -16,88 +16,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
+    <t>regions</t>
+  </si>
+  <si>
+    <t>galtan_blur</t>
+  </si>
+  <si>
+    <t>ethnic_minorities</t>
+  </si>
+  <si>
+    <t>urban_rural</t>
+  </si>
+  <si>
+    <t>sociallifestyle</t>
+  </si>
+  <si>
+    <t>galtan_sd</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>people_vs_elite</t>
+  </si>
+  <si>
+    <t>multicult_salience</t>
+  </si>
+  <si>
+    <t>protectionism</t>
+  </si>
+  <si>
+    <t>immigrate_policy</t>
+  </si>
+  <si>
+    <t>multiculturalism</t>
+  </si>
+  <si>
+    <t>galtan_dissent</t>
+  </si>
+  <si>
+    <t>religious_principles</t>
+  </si>
+  <si>
+    <t>lrgen</t>
+  </si>
+  <si>
+    <t>immigrate_dissent</t>
+  </si>
+  <si>
+    <t>nationalism</t>
+  </si>
+  <si>
+    <t>immigrate_salience</t>
+  </si>
+  <si>
+    <t>enviro_salience</t>
+  </si>
+  <si>
+    <t>galtan</t>
+  </si>
+  <si>
     <t>members_vs_leadership</t>
   </si>
   <si>
-    <t>galtan_dissent</t>
-  </si>
-  <si>
-    <t>religious_principles</t>
-  </si>
-  <si>
-    <t>immigrate_salience</t>
-  </si>
-  <si>
-    <t>environment</t>
+    <t>galtan_salience</t>
+  </si>
+  <si>
+    <t>antielite_salience</t>
+  </si>
+  <si>
+    <t>civlib_laworder</t>
   </si>
   <si>
     <t>multicult_dissent</t>
   </si>
   <si>
-    <t>regions</t>
-  </si>
-  <si>
-    <t>urban_rural</t>
-  </si>
-  <si>
-    <t>sociallifestyle</t>
-  </si>
-  <si>
-    <t>multicult_salience</t>
+    <t>anti_islam_rhetoric</t>
+  </si>
+  <si>
+    <t>corrupt_salience</t>
   </si>
   <si>
     <t>russian_interference</t>
-  </si>
-  <si>
-    <t>immigrate_policy</t>
-  </si>
-  <si>
-    <t>galtan_sd</t>
-  </si>
-  <si>
-    <t>galtan_blur</t>
-  </si>
-  <si>
-    <t>nationalism</t>
-  </si>
-  <si>
-    <t>protectionism</t>
-  </si>
-  <si>
-    <t>anti_islam_rhetoric</t>
-  </si>
-  <si>
-    <t>immigrate_dissent</t>
-  </si>
-  <si>
-    <t>galtan</t>
-  </si>
-  <si>
-    <t>corrupt_salience</t>
-  </si>
-  <si>
-    <t>lrgen</t>
-  </si>
-  <si>
-    <t>people_vs_elite</t>
-  </si>
-  <si>
-    <t>galtan_salience</t>
-  </si>
-  <si>
-    <t>antielite_salience</t>
-  </si>
-  <si>
-    <t>multiculturalism</t>
-  </si>
-  <si>
-    <t>civlib_laworder</t>
-  </si>
-  <si>
-    <t>enviro_salience</t>
-  </si>
-  <si>
-    <t>ethnic_minorities</t>
   </si>
   <si>
     <t>eu_position</t>
@@ -684,88 +684,88 @@
         <v>9</v>
       </c>
       <c r="B2">
+        <v>2.090909004211426</v>
+      </c>
+      <c r="C2">
+        <v>2.444444417953491</v>
+      </c>
+      <c r="D2">
+        <v>8.545454978942871</v>
+      </c>
+      <c r="E2">
+        <v>5.166666507720947</v>
+      </c>
+      <c r="F2">
+        <v>8.363636016845703</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>8.333333015441895</v>
+      </c>
+      <c r="I2">
+        <v>8.090909004211426</v>
+      </c>
+      <c r="J2">
+        <v>9.727272987365723</v>
+      </c>
+      <c r="K2">
+        <v>7.666666507720947</v>
+      </c>
+      <c r="L2">
+        <v>9.833333015441895</v>
+      </c>
+      <c r="M2">
+        <v>9.583333015441895</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>6.166666507720947</v>
+      </c>
+      <c r="P2">
+        <v>9.583333015441895</v>
+      </c>
+      <c r="Q2">
+        <v>0.4166666567325592</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>9.833333015441895</v>
+      </c>
+      <c r="T2">
+        <v>2.200000047683716</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
+      </c>
+      <c r="V2">
         <v>9.199999809265137</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>6.166666507720947</v>
-      </c>
-      <c r="E2">
-        <v>9.833333015441895</v>
-      </c>
-      <c r="F2">
-        <v>8.333333015441895</v>
-      </c>
-      <c r="G2">
+      <c r="W2">
+        <v>6.916666507720947</v>
+      </c>
+      <c r="X2">
+        <v>8.909090995788574</v>
+      </c>
+      <c r="Y2">
+        <v>9.416666984558105</v>
+      </c>
+      <c r="Z2">
         <v>1.636363625526428</v>
       </c>
-      <c r="H2">
-        <v>2.090909004211426</v>
-      </c>
-      <c r="I2">
-        <v>5.166666507720947</v>
-      </c>
-      <c r="J2">
-        <v>8.363636016845703</v>
-      </c>
-      <c r="K2">
-        <v>9.727272987365723</v>
-      </c>
-      <c r="L2">
+      <c r="AA2">
+        <v>8.777777671813965</v>
+      </c>
+      <c r="AB2">
+        <v>4.181818008422852</v>
+      </c>
+      <c r="AC2">
         <v>0.1111111119389534</v>
-      </c>
-      <c r="M2">
-        <v>9.833333015441895</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2.444444417953491</v>
-      </c>
-      <c r="P2">
-        <v>9</v>
-      </c>
-      <c r="Q2">
-        <v>7.666666507720947</v>
-      </c>
-      <c r="R2">
-        <v>8.777777671813965</v>
-      </c>
-      <c r="S2">
-        <v>0.4166666567325592</v>
-      </c>
-      <c r="T2">
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <v>4.181818008422852</v>
-      </c>
-      <c r="V2">
-        <v>9.583333015441895</v>
-      </c>
-      <c r="W2">
-        <v>8.090909004211426</v>
-      </c>
-      <c r="X2">
-        <v>6.916666507720947</v>
-      </c>
-      <c r="Y2">
-        <v>8.909090995788574</v>
-      </c>
-      <c r="Z2">
-        <v>9.583333015441895</v>
-      </c>
-      <c r="AA2">
-        <v>9.416666984558105</v>
-      </c>
-      <c r="AB2">
-        <v>2.200000047683716</v>
-      </c>
-      <c r="AC2">
-        <v>8.545454978942871</v>
       </c>
       <c r="AD2">
         <v>2.25</v>
@@ -831,7 +831,7 @@
         <v>-13.4685525894165</v>
       </c>
       <c r="AY2">
-        <v>9.718870162963867</v>
+        <v>7.843974113464355</v>
       </c>
     </row>
     <row r="3" spans="1:51">
@@ -839,88 +839,88 @@
         <v>55</v>
       </c>
       <c r="B3">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9.875</v>
+      </c>
+      <c r="E3">
+        <v>7.285714149475098</v>
+      </c>
+      <c r="F3">
+        <v>7.75</v>
+      </c>
+      <c r="G3">
+        <v>2.167124509811401</v>
+      </c>
+      <c r="H3">
+        <v>7.25</v>
+      </c>
+      <c r="I3">
+        <v>7.75</v>
+      </c>
+      <c r="J3">
         <v>9.5</v>
       </c>
-      <c r="C3">
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>9.875</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
         <v>1.75</v>
       </c>
-      <c r="D3">
+      <c r="O3">
         <v>5.5</v>
       </c>
-      <c r="E3">
+      <c r="P3">
+        <v>9.75</v>
+      </c>
+      <c r="Q3">
+        <v>0.625</v>
+      </c>
+      <c r="R3">
+        <v>9.625</v>
+      </c>
+      <c r="S3">
         <v>9.875</v>
       </c>
-      <c r="F3">
-        <v>7.25</v>
-      </c>
-      <c r="G3">
+      <c r="T3">
+        <v>2.5</v>
+      </c>
+      <c r="U3">
+        <v>8.125</v>
+      </c>
+      <c r="V3">
+        <v>9.5</v>
+      </c>
+      <c r="W3">
+        <v>7.625</v>
+      </c>
+      <c r="X3">
+        <v>9.428571701049805</v>
+      </c>
+      <c r="Y3">
+        <v>9.25</v>
+      </c>
+      <c r="Z3">
         <v>0.800000011920929</v>
       </c>
-      <c r="H3">
-        <v>4.599999904632568</v>
-      </c>
-      <c r="I3">
-        <v>7.285714149475098</v>
-      </c>
-      <c r="J3">
-        <v>7.75</v>
-      </c>
-      <c r="K3">
+      <c r="AA3">
         <v>9.5</v>
       </c>
-      <c r="L3">
+      <c r="AB3">
+        <v>5.714285850524902</v>
+      </c>
+      <c r="AC3">
         <v>2.333333253860474</v>
-      </c>
-      <c r="M3">
-        <v>9.875</v>
-      </c>
-      <c r="N3">
-        <v>2.167124509811401</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>9.625</v>
-      </c>
-      <c r="Q3">
-        <v>9</v>
-      </c>
-      <c r="R3">
-        <v>9.5</v>
-      </c>
-      <c r="S3">
-        <v>0.625</v>
-      </c>
-      <c r="T3">
-        <v>8.125</v>
-      </c>
-      <c r="U3">
-        <v>5.714285850524902</v>
-      </c>
-      <c r="V3">
-        <v>9.75</v>
-      </c>
-      <c r="W3">
-        <v>7.75</v>
-      </c>
-      <c r="X3">
-        <v>7.625</v>
-      </c>
-      <c r="Y3">
-        <v>9.428571701049805</v>
-      </c>
-      <c r="Z3">
-        <v>10</v>
-      </c>
-      <c r="AA3">
-        <v>9.25</v>
-      </c>
-      <c r="AB3">
-        <v>2.5</v>
-      </c>
-      <c r="AC3">
-        <v>9.875</v>
       </c>
       <c r="AD3">
         <v>1.375</v>
@@ -986,7 +986,7 @@
         <v>-11.90078639984131</v>
       </c>
       <c r="AY3">
-        <v>10.77569007873535</v>
+        <v>12.81764602661133</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -994,88 +994,88 @@
         <v>101</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3.333333253860474</v>
+      </c>
+      <c r="D4">
+        <v>4.857142925262451</v>
+      </c>
+      <c r="E4">
+        <v>4.5</v>
+      </c>
+      <c r="F4">
+        <v>6.5</v>
+      </c>
+      <c r="G4">
+        <v>1.690308451652527</v>
+      </c>
+      <c r="H4">
+        <v>5.75</v>
+      </c>
+      <c r="I4">
+        <v>2.714285612106323</v>
+      </c>
+      <c r="J4">
+        <v>4.857142925262451</v>
+      </c>
+      <c r="K4">
+        <v>3.285714387893677</v>
+      </c>
+      <c r="L4">
+        <v>5.375</v>
+      </c>
+      <c r="M4">
+        <v>5.333333492279053</v>
+      </c>
+      <c r="N4">
+        <v>3.666666746139526</v>
+      </c>
+      <c r="O4">
+        <v>6.428571224212646</v>
+      </c>
+      <c r="P4">
+        <v>6.375</v>
+      </c>
+      <c r="Q4">
+        <v>2.666666746139526</v>
+      </c>
+      <c r="R4">
+        <v>5.5</v>
+      </c>
+      <c r="S4">
+        <v>5.25</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4">
         <v>6.625</v>
       </c>
-      <c r="C4">
-        <v>3.666666746139526</v>
-      </c>
-      <c r="D4">
-        <v>6.428571224212646</v>
-      </c>
-      <c r="E4">
-        <v>5.25</v>
-      </c>
-      <c r="F4">
-        <v>5.75</v>
-      </c>
-      <c r="G4">
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>2.857142925262451</v>
+      </c>
+      <c r="Y4">
+        <v>6.5</v>
+      </c>
+      <c r="Z4">
         <v>2.599999904632568</v>
       </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4.5</v>
-      </c>
-      <c r="J4">
+      <c r="AA4">
+        <v>2.571428537368774</v>
+      </c>
+      <c r="AB4">
         <v>6.5</v>
       </c>
-      <c r="K4">
-        <v>4.857142925262451</v>
-      </c>
-      <c r="L4">
+      <c r="AC4">
         <v>0.25</v>
-      </c>
-      <c r="M4">
-        <v>5.375</v>
-      </c>
-      <c r="N4">
-        <v>1.690308451652527</v>
-      </c>
-      <c r="O4">
-        <v>3.333333253860474</v>
-      </c>
-      <c r="P4">
-        <v>5.5</v>
-      </c>
-      <c r="Q4">
-        <v>3.285714387893677</v>
-      </c>
-      <c r="R4">
-        <v>2.571428537368774</v>
-      </c>
-      <c r="S4">
-        <v>2.666666746139526</v>
-      </c>
-      <c r="T4">
-        <v>7</v>
-      </c>
-      <c r="U4">
-        <v>6.5</v>
-      </c>
-      <c r="V4">
-        <v>6.375</v>
-      </c>
-      <c r="W4">
-        <v>2.714285612106323</v>
-      </c>
-      <c r="X4">
-        <v>6</v>
-      </c>
-      <c r="Y4">
-        <v>2.857142925262451</v>
-      </c>
-      <c r="Z4">
-        <v>5.333333492279053</v>
-      </c>
-      <c r="AA4">
-        <v>6.5</v>
-      </c>
-      <c r="AB4">
-        <v>6</v>
-      </c>
-      <c r="AC4">
-        <v>4.857142925262451</v>
       </c>
       <c r="AD4">
         <v>6.75</v>
@@ -1141,7 +1141,7 @@
         <v>-10.3687629699707</v>
       </c>
       <c r="AY4">
-        <v>12.11248588562012</v>
+        <v>15.17751121520996</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -1149,88 +1149,88 @@
         <v>110</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1.625</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <v>1.888888835906982</v>
+      </c>
+      <c r="F5">
+        <v>1.600000023841858</v>
+      </c>
+      <c r="G5">
+        <v>1.418136477470398</v>
+      </c>
+      <c r="H5">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="I5">
+        <v>5.44444465637207</v>
+      </c>
+      <c r="J5">
+        <v>4.300000190734863</v>
+      </c>
+      <c r="K5">
+        <v>2.777777671813965</v>
+      </c>
+      <c r="L5">
+        <v>4.300000190734863</v>
+      </c>
+      <c r="M5">
+        <v>3.099999904632568</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
+        <v>1.555555582046509</v>
+      </c>
+      <c r="P5">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q5">
+        <v>2.222222328186035</v>
+      </c>
+      <c r="R5">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="S5">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="T5">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="U5">
+        <v>2.299999952316284</v>
+      </c>
+      <c r="V5">
         <v>5.25</v>
       </c>
-      <c r="C5">
-        <v>1.5</v>
-      </c>
-      <c r="D5">
-        <v>1.555555582046509</v>
-      </c>
-      <c r="E5">
-        <v>4.900000095367432</v>
-      </c>
-      <c r="F5">
-        <v>5.400000095367432</v>
-      </c>
-      <c r="G5">
+      <c r="W5">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="X5">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="Y5">
+        <v>2.799999952316284</v>
+      </c>
+      <c r="Z5">
         <v>2.333333253860474</v>
       </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>1.888888835906982</v>
-      </c>
-      <c r="J5">
-        <v>1.600000023841858</v>
-      </c>
-      <c r="K5">
-        <v>4.300000190734863</v>
-      </c>
-      <c r="L5">
+      <c r="AA5">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="AB5">
+        <v>8</v>
+      </c>
+      <c r="AC5">
         <v>2.428571462631226</v>
-      </c>
-      <c r="M5">
-        <v>4.300000190734863</v>
-      </c>
-      <c r="N5">
-        <v>1.418136477470398</v>
-      </c>
-      <c r="O5">
-        <v>1.625</v>
-      </c>
-      <c r="P5">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="Q5">
-        <v>2.777777671813965</v>
-      </c>
-      <c r="R5">
-        <v>1.200000047683716</v>
-      </c>
-      <c r="S5">
-        <v>2.222222328186035</v>
-      </c>
-      <c r="T5">
-        <v>2.299999952316284</v>
-      </c>
-      <c r="U5">
-        <v>8</v>
-      </c>
-      <c r="V5">
-        <v>5.900000095367432</v>
-      </c>
-      <c r="W5">
-        <v>5.44444465637207</v>
-      </c>
-      <c r="X5">
-        <v>6.400000095367432</v>
-      </c>
-      <c r="Y5">
-        <v>3.200000047683716</v>
-      </c>
-      <c r="Z5">
-        <v>3.099999904632568</v>
-      </c>
-      <c r="AA5">
-        <v>2.799999952316284</v>
-      </c>
-      <c r="AB5">
-        <v>5.400000095367432</v>
-      </c>
-      <c r="AC5">
-        <v>2.5</v>
       </c>
       <c r="AD5">
         <v>6.699999809265137</v>
@@ -1296,7 +1296,7 @@
         <v>-9.313339233398438</v>
       </c>
       <c r="AY5">
-        <v>7.085067749023438</v>
+        <v>10.42114639282227</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -1304,88 +1304,88 @@
         <v>117</v>
       </c>
       <c r="B6">
+        <v>5.461538314819336</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>1.642857193946838</v>
+      </c>
+      <c r="E6">
+        <v>1.785714268684387</v>
+      </c>
+      <c r="F6">
+        <v>0.7142857313156128</v>
+      </c>
+      <c r="G6">
+        <v>0.8287419080734253</v>
+      </c>
+      <c r="H6">
+        <v>1.714285731315613</v>
+      </c>
+      <c r="I6">
+        <v>5.25</v>
+      </c>
+      <c r="J6">
+        <v>7.857142925262451</v>
+      </c>
+      <c r="K6">
+        <v>3.636363744735718</v>
+      </c>
+      <c r="L6">
+        <v>1.285714268684387</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1.25</v>
+      </c>
+      <c r="O6">
+        <v>1.384615421295166</v>
+      </c>
+      <c r="P6">
+        <v>3.714285612106323</v>
+      </c>
+      <c r="Q6">
+        <v>1.5</v>
+      </c>
+      <c r="R6">
+        <v>1.142857193946838</v>
+      </c>
+      <c r="S6">
+        <v>8.285714149475098</v>
+      </c>
+      <c r="T6">
+        <v>9.571428298950195</v>
+      </c>
+      <c r="U6">
+        <v>0.9285714030265808</v>
+      </c>
+      <c r="V6">
         <v>4.454545497894287</v>
       </c>
-      <c r="C6">
-        <v>1.25</v>
-      </c>
-      <c r="D6">
-        <v>1.384615421295166</v>
-      </c>
-      <c r="E6">
-        <v>8.285714149475098</v>
-      </c>
-      <c r="F6">
-        <v>1.714285731315613</v>
-      </c>
-      <c r="G6">
+      <c r="W6">
+        <v>8.571428298950195</v>
+      </c>
+      <c r="X6">
+        <v>2.923076868057251</v>
+      </c>
+      <c r="Y6">
+        <v>1.857142806053162</v>
+      </c>
+      <c r="Z6">
         <v>1.5</v>
       </c>
-      <c r="H6">
-        <v>5.461538314819336</v>
-      </c>
-      <c r="I6">
-        <v>1.785714268684387</v>
-      </c>
-      <c r="J6">
-        <v>0.7142857313156128</v>
-      </c>
-      <c r="K6">
-        <v>7.857142925262451</v>
-      </c>
-      <c r="L6">
+      <c r="AA6">
+        <v>1.454545497894287</v>
+      </c>
+      <c r="AB6">
+        <v>3.090909004211426</v>
+      </c>
+      <c r="AC6">
         <v>2.444444417953491</v>
-      </c>
-      <c r="M6">
-        <v>1.285714268684387</v>
-      </c>
-      <c r="N6">
-        <v>0.8287419080734253</v>
-      </c>
-      <c r="O6">
-        <v>1.5</v>
-      </c>
-      <c r="P6">
-        <v>1.142857193946838</v>
-      </c>
-      <c r="Q6">
-        <v>3.636363744735718</v>
-      </c>
-      <c r="R6">
-        <v>1.454545497894287</v>
-      </c>
-      <c r="S6">
-        <v>1.5</v>
-      </c>
-      <c r="T6">
-        <v>0.9285714030265808</v>
-      </c>
-      <c r="U6">
-        <v>3.090909004211426</v>
-      </c>
-      <c r="V6">
-        <v>3.714285612106323</v>
-      </c>
-      <c r="W6">
-        <v>5.25</v>
-      </c>
-      <c r="X6">
-        <v>8.571428298950195</v>
-      </c>
-      <c r="Y6">
-        <v>2.923076868057251</v>
-      </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
-      <c r="AA6">
-        <v>1.857142806053162</v>
-      </c>
-      <c r="AB6">
-        <v>9.571428298950195</v>
-      </c>
-      <c r="AC6">
-        <v>1.642857193946838</v>
       </c>
       <c r="AD6">
         <v>6.5</v>
@@ -1451,7 +1451,7 @@
         <v>-11.21667671203613</v>
       </c>
       <c r="AY6">
-        <v>11.42408275604248</v>
+        <v>9.236160278320312</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1459,88 +1459,88 @@
         <v>153</v>
       </c>
       <c r="B7">
+        <v>8.857142448425293</v>
+      </c>
+      <c r="C7">
+        <v>0.8333333134651184</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8.5</v>
+      </c>
+      <c r="F7">
+        <v>9.266666412353516</v>
+      </c>
+      <c r="G7">
+        <v>0.8618916273117065</v>
+      </c>
+      <c r="H7">
+        <v>7.92307710647583</v>
+      </c>
+      <c r="I7">
+        <v>4.769230842590332</v>
+      </c>
+      <c r="J7">
+        <v>7.928571224212646</v>
+      </c>
+      <c r="K7">
+        <v>8.133333206176758</v>
+      </c>
+      <c r="L7">
         <v>9.933333396911621</v>
       </c>
-      <c r="C7">
+      <c r="M7">
+        <v>8.357142448425293</v>
+      </c>
+      <c r="N7">
         <v>0.75</v>
       </c>
-      <c r="D7">
+      <c r="O7">
         <v>9.428571701049805</v>
       </c>
-      <c r="E7">
+      <c r="P7">
+        <v>8.333333015441895</v>
+      </c>
+      <c r="Q7">
+        <v>0.3571428656578064</v>
+      </c>
+      <c r="R7">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="S7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>7.92307710647583</v>
-      </c>
-      <c r="G7">
+      <c r="T7">
+        <v>2.785714387893677</v>
+      </c>
+      <c r="U7">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="V7">
+        <v>9.933333396911621</v>
+      </c>
+      <c r="W7">
+        <v>9.571428298950195</v>
+      </c>
+      <c r="X7">
+        <v>8.15384578704834</v>
+      </c>
+      <c r="Y7">
+        <v>9.466666221618652</v>
+      </c>
+      <c r="Z7">
         <v>0.3846153914928436</v>
       </c>
-      <c r="H7">
-        <v>8.857142448425293</v>
-      </c>
-      <c r="I7">
-        <v>8.5</v>
-      </c>
-      <c r="J7">
-        <v>9.266666412353516</v>
-      </c>
-      <c r="K7">
-        <v>7.928571224212646</v>
-      </c>
-      <c r="L7">
+      <c r="AA7">
+        <v>8.933333396911621</v>
+      </c>
+      <c r="AB7">
+        <v>1.133333325386047</v>
+      </c>
+      <c r="AC7">
         <v>5</v>
-      </c>
-      <c r="M7">
-        <v>9.933333396911621</v>
-      </c>
-      <c r="N7">
-        <v>0.8618916273117065</v>
-      </c>
-      <c r="O7">
-        <v>0.8333333134651184</v>
-      </c>
-      <c r="P7">
-        <v>9.800000190734863</v>
-      </c>
-      <c r="Q7">
-        <v>8.133333206176758</v>
-      </c>
-      <c r="R7">
-        <v>8.933333396911621</v>
-      </c>
-      <c r="S7">
-        <v>0.3571428656578064</v>
-      </c>
-      <c r="T7">
-        <v>9.199999809265137</v>
-      </c>
-      <c r="U7">
-        <v>1.133333325386047</v>
-      </c>
-      <c r="V7">
-        <v>8.333333015441895</v>
-      </c>
-      <c r="W7">
-        <v>4.769230842590332</v>
-      </c>
-      <c r="X7">
-        <v>9.571428298950195</v>
-      </c>
-      <c r="Y7">
-        <v>8.15384578704834</v>
-      </c>
-      <c r="Z7">
-        <v>8.357142448425293</v>
-      </c>
-      <c r="AA7">
-        <v>9.466666221618652</v>
-      </c>
-      <c r="AB7">
-        <v>2.785714387893677</v>
-      </c>
-      <c r="AC7">
-        <v>8</v>
       </c>
       <c r="AD7">
         <v>3.066666603088379</v>
@@ -1606,7 +1606,7 @@
         <v>-6.588686943054199</v>
       </c>
       <c r="AY7">
-        <v>6.561381340026855</v>
+        <v>13.20911312103271</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -1614,88 +1614,88 @@
         <v>169</v>
       </c>
       <c r="B8">
+        <v>5.181818008422852</v>
+      </c>
+      <c r="C8">
+        <v>3.400000095367432</v>
+      </c>
+      <c r="D8">
+        <v>5.818181991577148</v>
+      </c>
+      <c r="E8">
+        <v>3.636363744735718</v>
+      </c>
+      <c r="F8">
+        <v>6.181818008422852</v>
+      </c>
+      <c r="G8">
+        <v>1.566698908805847</v>
+      </c>
+      <c r="H8">
+        <v>6.090909004211426</v>
+      </c>
+      <c r="I8">
+        <v>3.727272748947144</v>
+      </c>
+      <c r="J8">
+        <v>5.363636493682861</v>
+      </c>
+      <c r="K8">
+        <v>4.181818008422852</v>
+      </c>
+      <c r="L8">
+        <v>5.545454502105713</v>
+      </c>
+      <c r="M8">
+        <v>6.363636493682861</v>
+      </c>
+      <c r="N8">
+        <v>7.166666507720947</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>7.181818008422852</v>
+      </c>
+      <c r="Q8">
+        <v>5.111111164093018</v>
+      </c>
+      <c r="R8">
+        <v>7.090909004211426</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>6.636363506317139</v>
       </c>
-      <c r="C8">
-        <v>7.166666507720947</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>6.090909004211426</v>
-      </c>
-      <c r="G8">
+      <c r="V8">
+        <v>6.636363506317139</v>
+      </c>
+      <c r="W8">
+        <v>6.818181991577148</v>
+      </c>
+      <c r="X8">
+        <v>2.272727251052856</v>
+      </c>
+      <c r="Y8">
+        <v>5.727272510528564</v>
+      </c>
+      <c r="Z8">
         <v>4.900000095367432</v>
       </c>
-      <c r="H8">
-        <v>5.181818008422852</v>
-      </c>
-      <c r="I8">
-        <v>3.636363744735718</v>
-      </c>
-      <c r="J8">
-        <v>6.181818008422852</v>
-      </c>
-      <c r="K8">
-        <v>5.363636493682861</v>
-      </c>
-      <c r="L8">
+      <c r="AA8">
+        <v>1.545454502105713</v>
+      </c>
+      <c r="AB8">
+        <v>6.818181991577148</v>
+      </c>
+      <c r="AC8">
         <v>9.454545021057129</v>
-      </c>
-      <c r="M8">
-        <v>5.545454502105713</v>
-      </c>
-      <c r="N8">
-        <v>1.566698908805847</v>
-      </c>
-      <c r="O8">
-        <v>3.400000095367432</v>
-      </c>
-      <c r="P8">
-        <v>7.090909004211426</v>
-      </c>
-      <c r="Q8">
-        <v>4.181818008422852</v>
-      </c>
-      <c r="R8">
-        <v>1.545454502105713</v>
-      </c>
-      <c r="S8">
-        <v>5.111111164093018</v>
-      </c>
-      <c r="T8">
-        <v>6.636363506317139</v>
-      </c>
-      <c r="U8">
-        <v>6.818181991577148</v>
-      </c>
-      <c r="V8">
-        <v>7.181818008422852</v>
-      </c>
-      <c r="W8">
-        <v>3.727272748947144</v>
-      </c>
-      <c r="X8">
-        <v>6.818181991577148</v>
-      </c>
-      <c r="Y8">
-        <v>2.272727251052856</v>
-      </c>
-      <c r="Z8">
-        <v>6.363636493682861</v>
-      </c>
-      <c r="AA8">
-        <v>5.727272510528564</v>
-      </c>
-      <c r="AB8">
-        <v>3.5</v>
-      </c>
-      <c r="AC8">
-        <v>5.818181991577148</v>
       </c>
       <c r="AD8">
         <v>6.818181991577148</v>
@@ -1761,7 +1761,7 @@
         <v>-9.81767463684082</v>
       </c>
       <c r="AY8">
-        <v>6.731181621551514</v>
+        <v>10.00070571899414</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -1769,88 +1769,88 @@
         <v>253</v>
       </c>
       <c r="B9">
+        <v>4.714285850524902</v>
+      </c>
+      <c r="C9">
+        <v>4.5</v>
+      </c>
+      <c r="D9">
+        <v>5.666666507720947</v>
+      </c>
+      <c r="E9">
+        <v>5.833333492279053</v>
+      </c>
+      <c r="F9">
+        <v>4.714285850524902</v>
+      </c>
+      <c r="G9">
+        <v>1.718249440193176</v>
+      </c>
+      <c r="H9">
+        <v>5.428571224212646</v>
+      </c>
+      <c r="I9">
+        <v>3.714285612106323</v>
+      </c>
+      <c r="J9">
+        <v>5.166666507720947</v>
+      </c>
+      <c r="K9">
+        <v>1.857142806053162</v>
+      </c>
+      <c r="L9">
+        <v>7.571428775787354</v>
+      </c>
+      <c r="M9">
         <v>6.285714149475098</v>
       </c>
-      <c r="C9">
+      <c r="N9">
         <v>6.800000190734863</v>
       </c>
-      <c r="D9">
+      <c r="O9">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="P9">
+        <v>6.142857074737549</v>
+      </c>
+      <c r="Q9">
+        <v>4.142857074737549</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
         <v>7.571428775787354</v>
       </c>
-      <c r="F9">
+      <c r="T9">
+        <v>4.714285850524902</v>
+      </c>
+      <c r="U9">
+        <v>6.571428775787354</v>
+      </c>
+      <c r="V9">
+        <v>6.285714149475098</v>
+      </c>
+      <c r="W9">
         <v>5.428571224212646</v>
       </c>
-      <c r="G9">
+      <c r="X9">
+        <v>6.428571224212646</v>
+      </c>
+      <c r="Y9">
+        <v>6.285714149475098</v>
+      </c>
+      <c r="Z9">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>4.714285850524902</v>
-      </c>
-      <c r="I9">
-        <v>5.833333492279053</v>
-      </c>
-      <c r="J9">
-        <v>4.714285850524902</v>
-      </c>
-      <c r="K9">
-        <v>5.166666507720947</v>
-      </c>
-      <c r="L9">
+      <c r="AA9">
+        <v>2.142857074737549</v>
+      </c>
+      <c r="AB9">
+        <v>8.285714149475098</v>
+      </c>
+      <c r="AC9">
         <v>0.8571428656578064</v>
-      </c>
-      <c r="M9">
-        <v>7.571428775787354</v>
-      </c>
-      <c r="N9">
-        <v>1.718249440193176</v>
-      </c>
-      <c r="O9">
-        <v>4.5</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-      <c r="Q9">
-        <v>1.857142806053162</v>
-      </c>
-      <c r="R9">
-        <v>2.142857074737549</v>
-      </c>
-      <c r="S9">
-        <v>4.142857074737549</v>
-      </c>
-      <c r="T9">
-        <v>6.571428775787354</v>
-      </c>
-      <c r="U9">
-        <v>8.285714149475098</v>
-      </c>
-      <c r="V9">
-        <v>6.142857074737549</v>
-      </c>
-      <c r="W9">
-        <v>3.714285612106323</v>
-      </c>
-      <c r="X9">
-        <v>5.428571224212646</v>
-      </c>
-      <c r="Y9">
-        <v>6.428571224212646</v>
-      </c>
-      <c r="Z9">
-        <v>6.285714149475098</v>
-      </c>
-      <c r="AA9">
-        <v>6.285714149475098</v>
-      </c>
-      <c r="AB9">
-        <v>4.714285850524902</v>
-      </c>
-      <c r="AC9">
-        <v>5.666666507720947</v>
       </c>
       <c r="AD9">
         <v>6.571428775787354</v>
@@ -1916,7 +1916,7 @@
         <v>-7.326930046081543</v>
       </c>
       <c r="AY9">
-        <v>9.841355323791504</v>
+        <v>12.3221960067749</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -1924,88 +1924,88 @@
         <v>256</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="K10">
+        <v>2.5</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>5.5</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
         <v>4.5</v>
       </c>
-      <c r="L10">
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>5.5</v>
+      </c>
+      <c r="X10">
+        <v>0.5</v>
+      </c>
+      <c r="Y10">
+        <v>4.5</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AA10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10">
+      <c r="AB10">
+        <v>1.5</v>
+      </c>
+      <c r="AC10">
         <v>0</v>
-      </c>
-      <c r="O10">
-        <v>7</v>
-      </c>
-      <c r="P10">
-        <v>4.5</v>
-      </c>
-      <c r="Q10">
-        <v>2.5</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>6</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
-      </c>
-      <c r="U10">
-        <v>1.5</v>
-      </c>
-      <c r="V10">
-        <v>5.5</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>5.5</v>
-      </c>
-      <c r="Y10">
-        <v>0.5</v>
-      </c>
-      <c r="Z10">
-        <v>5</v>
-      </c>
-      <c r="AA10">
-        <v>4.5</v>
-      </c>
-      <c r="AB10">
-        <v>7</v>
-      </c>
-      <c r="AC10">
-        <v>6</v>
       </c>
       <c r="AD10">
         <v>6.5</v>
@@ -2071,7 +2071,7 @@
         <v>-5.826385498046875</v>
       </c>
       <c r="AY10">
-        <v>8.072118759155273</v>
+        <v>6.763947486877441</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2079,88 +2079,88 @@
         <v>264</v>
       </c>
       <c r="B11">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="C11">
+        <v>6.5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="I11">
         <v>3.5</v>
       </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
+      <c r="J11">
         <v>4</v>
-      </c>
-      <c r="J11">
-        <v>4.5</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
         <v>4.5</v>
       </c>
       <c r="Q11">
+        <v>3.5</v>
+      </c>
+      <c r="R11">
+        <v>4.5</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
         <v>4</v>
-      </c>
-      <c r="R11">
-        <v>3</v>
-      </c>
-      <c r="S11">
-        <v>3.5</v>
-      </c>
-      <c r="T11">
-        <v>6</v>
       </c>
       <c r="U11">
         <v>6</v>
       </c>
       <c r="V11">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="W11">
         <v>3.5</v>
       </c>
       <c r="X11">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y11">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Z11">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>5.5</v>
@@ -2226,7 +2226,7 @@
         <v>-9.098040580749512</v>
       </c>
       <c r="AY11">
-        <v>10.79767322540283</v>
+        <v>14.1818962097168</v>
       </c>
     </row>
   </sheetData>
